--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED2636-703E-4CA2-93AA-67C11542E3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F477F-7020-413B-8108-6148CD3B3263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,6 +516,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
